--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>204</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>212</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10012</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10024</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10034</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10036</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20012</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20024</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20026</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20034</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20036</v>
       </c>
@@ -1822,8 +1822,8 @@
   </sheetPr>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E283" sqref="E283"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,7 +6572,7 @@
         <v>12</v>
       </c>
       <c r="D279" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>333</v>
@@ -6589,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="D280" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>334</v>

--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -9,18 +9,18 @@
   <sheets>
     <sheet name="Parnumber" sheetId="2" r:id="rId1"/>
     <sheet name="Objects" sheetId="3" r:id="rId2"/>
-    <sheet name="full3000" sheetId="9" r:id="rId3"/>
-    <sheet name="SV" sheetId="10" r:id="rId4"/>
+    <sheet name="Piramida3000" sheetId="9" r:id="rId3"/>
+    <sheet name="PiramidaSV" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">full3000!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Piramida3000!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
   <si>
     <t>Код</t>
   </si>
@@ -1150,60 +1150,9 @@
     <t>F 2 с.ш. 110</t>
   </si>
   <si>
-    <t>Иж-1 220</t>
-  </si>
-  <si>
-    <t>Иж-2 220</t>
-  </si>
-  <si>
-    <t>Кау-1 220</t>
-  </si>
-  <si>
-    <t>Кау-2 220</t>
-  </si>
-  <si>
     <t>Суммарное ручное задание Р ГЭС</t>
   </si>
   <si>
-    <t>Светлая 220</t>
-  </si>
-  <si>
-    <t>OBB 220</t>
-  </si>
-  <si>
-    <t>2AT 220</t>
-  </si>
-  <si>
-    <t>3AT 220</t>
-  </si>
-  <si>
-    <t>4T 220</t>
-  </si>
-  <si>
-    <t>5,6 AT 220</t>
-  </si>
-  <si>
-    <t>Ток ротора</t>
-  </si>
-  <si>
-    <t>Активная мощность</t>
-  </si>
-  <si>
-    <t>Реактивная мощность</t>
-  </si>
-  <si>
-    <t>Ток статора, фаза А</t>
-  </si>
-  <si>
-    <t>Ток статора, фаза В</t>
-  </si>
-  <si>
-    <t>Ток статора, фаза С</t>
-  </si>
-  <si>
-    <t>Контроль напора (см)</t>
-  </si>
-  <si>
     <t>Г1 Расход</t>
   </si>
   <si>
@@ -1444,48 +1393,6 @@
     <t>Суммарная Q ГЭС</t>
   </si>
   <si>
-    <t>КШТ-1 110КВ</t>
-  </si>
-  <si>
-    <t>КШТ-2 110КВ</t>
-  </si>
-  <si>
-    <t>Каучук 110КВ</t>
-  </si>
-  <si>
-    <t>ЧаТЭЦ 110 кВ</t>
-  </si>
-  <si>
-    <t>Березовка 110 кВ</t>
-  </si>
-  <si>
-    <t>Дубовая 110 кВ</t>
-  </si>
-  <si>
-    <t>Водозабор 1 - 110 кВ</t>
-  </si>
-  <si>
-    <t>Водозабор 2 - 110 кВ</t>
-  </si>
-  <si>
-    <t>Светлая 110 кВ</t>
-  </si>
-  <si>
-    <t>Ивановка 110 кВ</t>
-  </si>
-  <si>
-    <t>ОВВ 110 кВ</t>
-  </si>
-  <si>
-    <t>Южная 500 кВ</t>
-  </si>
-  <si>
-    <t>Карманово 500 кВ</t>
-  </si>
-  <si>
-    <t>Вятка 500 кВ</t>
-  </si>
-  <si>
     <t>I ВВ 1Т 110 кВ</t>
   </si>
   <si>
@@ -1495,19 +1402,286 @@
     <t>Q ВВ 1Т 110 кВ</t>
   </si>
   <si>
-    <t>I ВВ 5,6АТ 110 кВ</t>
-  </si>
-  <si>
-    <t>P ВВ 5,6АТ 110 кВ</t>
-  </si>
-  <si>
-    <t>Q ВВ 5,6АТ 110 кВ</t>
-  </si>
-  <si>
-    <t>ВВ 2АТ 500 кВ</t>
-  </si>
-  <si>
-    <t>ВВ 3АТ 500 кВ</t>
+    <t>Иж-1 220 I</t>
+  </si>
+  <si>
+    <t>Иж-1 220 P</t>
+  </si>
+  <si>
+    <t>Иж-1 220 Q</t>
+  </si>
+  <si>
+    <t>Иж-2 220 I</t>
+  </si>
+  <si>
+    <t>Иж-2 220 P</t>
+  </si>
+  <si>
+    <t>Иж-2 220 Q</t>
+  </si>
+  <si>
+    <t>Кау-1 220 I</t>
+  </si>
+  <si>
+    <t>Кау-1 220 P</t>
+  </si>
+  <si>
+    <t>Кау-1 220 Q</t>
+  </si>
+  <si>
+    <t>Кау-2 220 I</t>
+  </si>
+  <si>
+    <t>Кау-2 220 P</t>
+  </si>
+  <si>
+    <t>Кау-2 220 Q</t>
+  </si>
+  <si>
+    <t>Светлая 220 I</t>
+  </si>
+  <si>
+    <t>Светлая 220 P</t>
+  </si>
+  <si>
+    <t>Светлая 220 Q</t>
+  </si>
+  <si>
+    <t>OBB 220 I</t>
+  </si>
+  <si>
+    <t>OBB 220 P</t>
+  </si>
+  <si>
+    <t>OBB 220 Q</t>
+  </si>
+  <si>
+    <t>2AT 220 I</t>
+  </si>
+  <si>
+    <t>2AT 220 P</t>
+  </si>
+  <si>
+    <t>2AT 220 Q</t>
+  </si>
+  <si>
+    <t>3AT 220 I</t>
+  </si>
+  <si>
+    <t>3AT 220 P</t>
+  </si>
+  <si>
+    <t>3AT 220 Q</t>
+  </si>
+  <si>
+    <t>4T 220 I</t>
+  </si>
+  <si>
+    <t>4T 220 P</t>
+  </si>
+  <si>
+    <t>4T 220 Q</t>
+  </si>
+  <si>
+    <t>5,6 AT 220 I</t>
+  </si>
+  <si>
+    <t>5,6 AT 220 P</t>
+  </si>
+  <si>
+    <t>5,6 AT 220 Q</t>
+  </si>
+  <si>
+    <t>Г1 Ток ротора</t>
+  </si>
+  <si>
+    <t>Г1 Активная мощность</t>
+  </si>
+  <si>
+    <t>Г1 Реактивная мощность</t>
+  </si>
+  <si>
+    <t>Г1 Ток статора, фаза А</t>
+  </si>
+  <si>
+    <t>Г1 Ток статора, фаза В</t>
+  </si>
+  <si>
+    <t>Г1 Ток статора, фаза С</t>
+  </si>
+  <si>
+    <t>Г1 Контроль напора (см)</t>
+  </si>
+  <si>
+    <t>КШТ-1 110КВ I</t>
+  </si>
+  <si>
+    <t>КШТ-1 110КВ P</t>
+  </si>
+  <si>
+    <t>КШТ-1 110КВ Q</t>
+  </si>
+  <si>
+    <t>КШТ-2 110КВ I</t>
+  </si>
+  <si>
+    <t>КШТ-2 110КВ P</t>
+  </si>
+  <si>
+    <t>КШТ-2 110КВ Q</t>
+  </si>
+  <si>
+    <t>Каучук 110КВ I</t>
+  </si>
+  <si>
+    <t>Каучук 110КВ P</t>
+  </si>
+  <si>
+    <t>Каучук 110КВ Q</t>
+  </si>
+  <si>
+    <t>ЧаТЭЦ 110 Кв I</t>
+  </si>
+  <si>
+    <t>ЧаТЭЦ 110 Кв P</t>
+  </si>
+  <si>
+    <t>ЧаТЭЦ 110 Кв Q</t>
+  </si>
+  <si>
+    <t>Березовка 110 кВ I</t>
+  </si>
+  <si>
+    <t>Березовка 110 кВ P</t>
+  </si>
+  <si>
+    <t>Березовка 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Дубовая 110 кВ I</t>
+  </si>
+  <si>
+    <t>Дубовая 110 кВ P</t>
+  </si>
+  <si>
+    <t>Дубовая 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Водозабор 1 - 110 кВ I</t>
+  </si>
+  <si>
+    <t>Водозабор 1 - 110 кВ P</t>
+  </si>
+  <si>
+    <t>Водозабор 1 - 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Водозабор 2 - 110 кВ I</t>
+  </si>
+  <si>
+    <t>Водозабор 2 - 110 кВ P</t>
+  </si>
+  <si>
+    <t>Водозабор 2 - 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Светлая 110 кВ I</t>
+  </si>
+  <si>
+    <t>Светлая 110 кВ P</t>
+  </si>
+  <si>
+    <t>Светлая 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Ивановка 110 кВ I</t>
+  </si>
+  <si>
+    <t>Ивановка 110 кВ P</t>
+  </si>
+  <si>
+    <t>Ивановка 110 кВ Q</t>
+  </si>
+  <si>
+    <t>ОВВ 110 кВ I</t>
+  </si>
+  <si>
+    <t>ОВВ 110 кВ P</t>
+  </si>
+  <si>
+    <t>ОВВ 110 кВ Q</t>
+  </si>
+  <si>
+    <t>Южная 500 кВ I</t>
+  </si>
+  <si>
+    <t>Южная 500 кВ P</t>
+  </si>
+  <si>
+    <t>Южная 500 кВ Q</t>
+  </si>
+  <si>
+    <t>Южная 500 кВ U</t>
+  </si>
+  <si>
+    <t>Южная 500 кВ F</t>
+  </si>
+  <si>
+    <t>Карманово 500 кВ I</t>
+  </si>
+  <si>
+    <t>Карманово 500 кВ P</t>
+  </si>
+  <si>
+    <t>Карманово 500 кВ Q</t>
+  </si>
+  <si>
+    <t>Карманово 500 кВ U</t>
+  </si>
+  <si>
+    <t>Карманово 500 кВ F</t>
+  </si>
+  <si>
+    <t>Вятка 500 кВ I</t>
+  </si>
+  <si>
+    <t>Вятка 500 кВ P</t>
+  </si>
+  <si>
+    <t>Вятка 500 кВ Q</t>
+  </si>
+  <si>
+    <t>Вятка 500 кВ U</t>
+  </si>
+  <si>
+    <t>Вятка 500 кВ F</t>
+  </si>
+  <si>
+    <t>ВВ 2АТ 500 кВ I</t>
+  </si>
+  <si>
+    <t>ВВ 2АТ 500 кВ P</t>
+  </si>
+  <si>
+    <t>ВВ 2АТ 500 кВ Q</t>
+  </si>
+  <si>
+    <t>ВВ 3АТ 500 кВ I</t>
+  </si>
+  <si>
+    <t>ВВ 3АТ 500 кВ P</t>
+  </si>
+  <si>
+    <t>ВВ 3АТ 500 кВ Q</t>
+  </si>
+  <si>
+    <t>ВВ 5,6АТ 110 кВ I</t>
+  </si>
+  <si>
+    <t>ВВ 5,6АТ 110 кВ P</t>
+  </si>
+  <si>
+    <t>ВВ 5,6АТ 110 кВ Q</t>
   </si>
 </sst>
 </file>
@@ -7542,7 +7716,7 @@
   <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8163,7 +8337,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>376</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8180,7 +8354,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8197,7 +8371,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8214,7 +8388,7 @@
         <v>48</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8231,7 +8405,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8248,7 +8422,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>377</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8439,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8282,7 +8456,7 @@
         <v>68</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8299,7 +8473,7 @@
         <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8316,7 +8490,7 @@
         <v>84</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>379</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8333,7 +8507,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>379</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,7 +8524,7 @@
         <v>88</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8367,7 +8541,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8384,7 +8558,7 @@
         <v>102</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8401,7 +8575,7 @@
         <v>104</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>381</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8418,7 +8592,7 @@
         <v>106</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>381</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8435,7 +8609,7 @@
         <v>120</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8452,7 +8626,7 @@
         <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8469,7 +8643,7 @@
         <v>124</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8486,7 +8660,7 @@
         <v>138</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8503,7 +8677,7 @@
         <v>140</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8520,7 +8694,7 @@
         <v>142</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8537,7 +8711,7 @@
         <v>156</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>384</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8554,7 +8728,7 @@
         <v>158</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>384</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8571,7 +8745,7 @@
         <v>160</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>384</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8588,7 +8762,7 @@
         <v>174</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8605,7 +8779,7 @@
         <v>176</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8622,7 +8796,7 @@
         <v>178</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8639,7 +8813,7 @@
         <v>192</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8656,7 +8830,7 @@
         <v>194</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8673,7 +8847,7 @@
         <v>196</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8690,7 +8864,7 @@
         <v>210</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8707,7 +8881,7 @@
         <v>216</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8724,7 +8898,7 @@
         <v>218</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8741,7 +8915,7 @@
         <v>220</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8758,7 +8932,7 @@
         <v>222</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8775,7 +8949,7 @@
         <v>224</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8792,7 +8966,7 @@
         <v>230</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8809,7 +8983,7 @@
         <v>238</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8826,7 +9000,7 @@
         <v>260</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8843,7 +9017,7 @@
         <v>266</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8860,7 +9034,7 @@
         <v>268</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8877,7 +9051,7 @@
         <v>270</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8894,7 +9068,7 @@
         <v>272</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8911,7 +9085,7 @@
         <v>274</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8928,7 +9102,7 @@
         <v>280</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8945,7 +9119,7 @@
         <v>288</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8962,7 +9136,7 @@
         <v>310</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -8979,7 +9153,7 @@
         <v>316</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -8996,7 +9170,7 @@
         <v>318</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9013,7 +9187,7 @@
         <v>320</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9030,7 +9204,7 @@
         <v>322</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9047,7 +9221,7 @@
         <v>324</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9064,7 +9238,7 @@
         <v>330</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9081,7 +9255,7 @@
         <v>338</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9098,7 +9272,7 @@
         <v>360</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9115,7 +9289,7 @@
         <v>366</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9132,7 +9306,7 @@
         <v>368</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9149,7 +9323,7 @@
         <v>370</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9166,7 +9340,7 @@
         <v>372</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9183,7 +9357,7 @@
         <v>374</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9200,7 +9374,7 @@
         <v>380</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9217,7 +9391,7 @@
         <v>388</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9234,7 +9408,7 @@
         <v>410</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9251,7 +9425,7 @@
         <v>416</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9268,7 +9442,7 @@
         <v>418</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9285,7 +9459,7 @@
         <v>420</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9302,7 +9476,7 @@
         <v>422</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9319,7 +9493,7 @@
         <v>424</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9336,7 +9510,7 @@
         <v>430</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9353,7 +9527,7 @@
         <v>438</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9370,7 +9544,7 @@
         <v>460</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9387,7 +9561,7 @@
         <v>466</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9404,7 +9578,7 @@
         <v>468</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9421,7 +9595,7 @@
         <v>470</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9438,7 +9612,7 @@
         <v>472</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9455,7 +9629,7 @@
         <v>474</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9472,7 +9646,7 @@
         <v>480</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9489,7 +9663,7 @@
         <v>488</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9506,7 +9680,7 @@
         <v>510</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9523,7 +9697,7 @@
         <v>516</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9540,7 +9714,7 @@
         <v>518</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9557,7 +9731,7 @@
         <v>520</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9574,7 +9748,7 @@
         <v>522</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9591,7 +9765,7 @@
         <v>524</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9608,7 +9782,7 @@
         <v>530</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9625,7 +9799,7 @@
         <v>538</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9642,7 +9816,7 @@
         <v>548</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9659,7 +9833,7 @@
         <v>550</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9676,7 +9850,7 @@
         <v>552</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9693,7 +9867,7 @@
         <v>560</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9710,7 +9884,7 @@
         <v>566</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9727,7 +9901,7 @@
         <v>568</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9744,7 +9918,7 @@
         <v>570</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9761,7 +9935,7 @@
         <v>572</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9778,7 +9952,7 @@
         <v>574</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9795,7 +9969,7 @@
         <v>580</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9812,7 +9986,7 @@
         <v>588</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9829,7 +10003,7 @@
         <v>610</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9846,7 +10020,7 @@
         <v>616</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9863,7 +10037,7 @@
         <v>618</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9880,7 +10054,7 @@
         <v>620</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -9897,7 +10071,7 @@
         <v>622</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9914,7 +10088,7 @@
         <v>624</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -9931,7 +10105,7 @@
         <v>630</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9948,7 +10122,7 @@
         <v>638</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9965,7 +10139,7 @@
         <v>660</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9982,7 +10156,7 @@
         <v>666</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -9999,7 +10173,7 @@
         <v>668</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10016,7 +10190,7 @@
         <v>670</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10033,7 +10207,7 @@
         <v>672</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10050,7 +10224,7 @@
         <v>674</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10067,7 +10241,7 @@
         <v>680</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10084,7 +10258,7 @@
         <v>688</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10101,7 +10275,7 @@
         <v>708</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10118,7 +10292,7 @@
         <v>746</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10135,7 +10309,7 @@
         <v>750</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10152,7 +10326,7 @@
         <v>764</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10169,7 +10343,7 @@
         <v>810</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10186,7 +10360,7 @@
         <v>812</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10203,7 +10377,7 @@
         <v>814</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10220,7 +10394,7 @@
         <v>820</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10237,7 +10411,7 @@
         <v>822</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10254,7 +10428,7 @@
         <v>824</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10271,7 +10445,7 @@
         <v>830</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10288,7 +10462,7 @@
         <v>832</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10305,7 +10479,7 @@
         <v>834</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10322,7 +10496,7 @@
         <v>840</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10339,7 +10513,7 @@
         <v>842</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10356,7 +10530,7 @@
         <v>844</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10373,7 +10547,7 @@
         <v>850</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10390,7 +10564,7 @@
         <v>852</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10407,7 +10581,7 @@
         <v>854</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10424,7 +10598,7 @@
         <v>860</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10441,7 +10615,7 @@
         <v>862</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10458,7 +10632,7 @@
         <v>864</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10475,7 +10649,7 @@
         <v>870</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10492,7 +10666,7 @@
         <v>872</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10509,7 +10683,7 @@
         <v>874</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10526,7 +10700,7 @@
         <v>880</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10543,7 +10717,7 @@
         <v>882</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10560,7 +10734,7 @@
         <v>884</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10577,7 +10751,7 @@
         <v>890</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10594,7 +10768,7 @@
         <v>892</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10611,7 +10785,7 @@
         <v>894</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10628,7 +10802,7 @@
         <v>900</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10645,7 +10819,7 @@
         <v>902</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10662,7 +10836,7 @@
         <v>904</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10679,7 +10853,7 @@
         <v>910</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10696,7 +10870,7 @@
         <v>912</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10713,7 +10887,7 @@
         <v>914</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10730,7 +10904,7 @@
         <v>930</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10747,7 +10921,7 @@
         <v>932</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10764,7 +10938,7 @@
         <v>934</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10781,7 +10955,7 @@
         <v>936</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10798,7 +10972,7 @@
         <v>938</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10815,7 +10989,7 @@
         <v>940</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10832,7 +11006,7 @@
         <v>942</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10849,7 +11023,7 @@
         <v>944</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10866,7 +11040,7 @@
         <v>946</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10883,7 +11057,7 @@
         <v>948</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -10900,7 +11074,7 @@
         <v>950</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -10917,7 +11091,7 @@
         <v>952</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -10934,7 +11108,7 @@
         <v>954</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -10951,7 +11125,7 @@
         <v>956</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -10968,7 +11142,7 @@
         <v>958</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10985,7 +11159,7 @@
         <v>970</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -11002,7 +11176,7 @@
         <v>972</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -11019,7 +11193,7 @@
         <v>974</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -11036,7 +11210,7 @@
         <v>980</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -11053,7 +11227,7 @@
         <v>982</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -11070,7 +11244,7 @@
         <v>984</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -11087,7 +11261,7 @@
         <v>990</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -11104,7 +11278,7 @@
         <v>992</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -11121,7 +11295,7 @@
         <v>994</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -11138,7 +11312,7 @@
         <v>1000</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -11155,7 +11329,7 @@
         <v>1002</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11172,7 +11346,7 @@
         <v>1004</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/Piramida_DB.xlsx
+++ b/Piramida_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="14565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parnumber" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="551">
   <si>
     <t>Код</t>
   </si>
@@ -188,15 +188,6 @@
   </si>
   <si>
     <t>Приток КамГЭС</t>
-  </si>
-  <si>
-    <t>Верхний бьеф по ФАВР (value0 - нижняя граница, value1 - верхняя граница)</t>
-  </si>
-  <si>
-    <t>Нижний бьеф по ФАВР (value0 - нижняя граница, value1 - верхняя граница)</t>
-  </si>
-  <si>
-    <t>Расход по ФАВР (value0 - нижняя граница, value1 - верхняя граница)</t>
   </si>
   <si>
     <t>Напор</t>
@@ -1688,18 +1679,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1810,9 +1793,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1830,14 +1813,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2165,7 +2145,7 @@
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2173,7 +2153,7 @@
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2181,8 +2161,8 @@
       <c r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>341</v>
+      <c r="B4" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2177,7 @@
       <c r="A6" s="1">
         <v>26</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2251,8 +2231,8 @@
       <c r="A13" s="1">
         <v>312</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>342</v>
+      <c r="B13" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2378,7 @@
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2407,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2402,7 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2437,10 +2417,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E37:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,20 +2433,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2528,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,7 +2599,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,7 +2667,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,7 +2701,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,7 +2718,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,7 +2735,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,7 +2752,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,7 +2786,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,7 +2803,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2840,7 +2820,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,7 +2837,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,7 +2854,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +2871,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,7 +2888,7 @@
         <v>42</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2922,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,7 +2939,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2956,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,7 +2990,7 @@
         <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3007,7 @@
         <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3024,7 @@
         <v>55</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3058,7 @@
         <v>57</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3075,7 @@
         <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,7 +3092,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,7 +3109,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,7 +3126,7 @@
         <v>61</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3143,7 @@
         <v>62</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3180,7 +3160,7 @@
         <v>63</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,7 +3177,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3194,7 @@
         <v>65</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,7 +3211,7 @@
         <v>66</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,7 +3228,7 @@
         <v>67</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3265,7 +3245,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,7 +3262,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,7 +3279,7 @@
         <v>70</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3415,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,7 +3449,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,7 +3602,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,7 +3619,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,7 +3636,7 @@
         <v>19</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,7 +3670,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,7 +3687,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,7 +3704,7 @@
         <v>23</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,7 +3721,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,7 +3755,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3772,7 @@
         <v>28</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3826,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,7 +3823,7 @@
         <v>31</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3860,7 +3840,7 @@
         <v>32</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,7 +3857,7 @@
         <v>33</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3891,7 @@
         <v>35</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3928,7 +3908,7 @@
         <v>36</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,7 +3925,7 @@
         <v>37</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3979,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4030,7 +4010,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4047,7 +4027,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4081,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,7 +4078,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4132,7 +4112,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4166,7 +4146,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,7 +4163,7 @@
         <v>14</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4217,7 +4197,7 @@
         <v>16</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4234,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,7 +4248,7 @@
         <v>19</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4302,7 +4282,7 @@
         <v>21</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4319,7 +4299,7 @@
         <v>22</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,7 +4316,7 @@
         <v>23</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,7 +4333,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,7 +4367,7 @@
         <v>26</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,7 +4384,7 @@
         <v>27</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,7 +4401,7 @@
         <v>28</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4438,7 +4418,7 @@
         <v>29</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,7 +4435,7 @@
         <v>30</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4472,7 +4452,7 @@
         <v>31</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,7 +4469,7 @@
         <v>32</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,7 +4486,7 @@
         <v>33</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,7 +4503,7 @@
         <v>34</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4540,7 +4520,7 @@
         <v>35</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4557,7 +4537,7 @@
         <v>36</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,7 +4554,7 @@
         <v>37</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4591,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4608,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4625,7 +4605,7 @@
         <v>40</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4642,7 +4622,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,7 +4639,7 @@
         <v>42</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4676,7 +4656,7 @@
         <v>43</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4693,7 +4673,7 @@
         <v>44</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4710,7 +4690,7 @@
         <v>45</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4744,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4761,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4778,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4812,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4829,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4846,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,7 +4843,7 @@
         <v>8</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4880,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4897,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4914,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4931,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4948,7 +4928,7 @@
         <v>13</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,7 +4945,7 @@
         <v>14</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4982,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4999,7 +4979,7 @@
         <v>16</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5016,7 +4996,7 @@
         <v>17</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5033,7 +5013,7 @@
         <v>18</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5050,7 +5030,7 @@
         <v>19</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5067,7 +5047,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5084,7 +5064,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5101,7 +5081,7 @@
         <v>22</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,7 +5098,7 @@
         <v>23</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5135,7 +5115,7 @@
         <v>24</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5152,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5169,7 +5149,7 @@
         <v>26</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,7 +5166,7 @@
         <v>27</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,7 +5183,7 @@
         <v>28</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,7 +5200,7 @@
         <v>29</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5237,7 +5217,7 @@
         <v>30</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5254,7 +5234,7 @@
         <v>31</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5271,7 +5251,7 @@
         <v>32</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5288,7 +5268,7 @@
         <v>33</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5305,7 +5285,7 @@
         <v>34</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5322,7 +5302,7 @@
         <v>35</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,7 +5319,7 @@
         <v>36</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5356,7 +5336,7 @@
         <v>37</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5373,7 +5353,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5390,7 +5370,7 @@
         <v>39</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5407,7 +5387,7 @@
         <v>40</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,7 +5404,7 @@
         <v>41</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,7 +5421,7 @@
         <v>42</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5458,7 +5438,7 @@
         <v>43</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5475,7 +5455,7 @@
         <v>44</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5492,7 +5472,7 @@
         <v>45</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5509,7 +5489,7 @@
         <v>46</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5526,7 +5506,7 @@
         <v>47</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5543,7 +5523,7 @@
         <v>48</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5560,7 +5540,7 @@
         <v>49</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5577,7 +5557,7 @@
         <v>50</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,7 +5574,7 @@
         <v>51</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,7 +5591,7 @@
         <v>52</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,7 +5608,7 @@
         <v>53</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,7 +5625,7 @@
         <v>54</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,7 +5642,7 @@
         <v>55</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5679,7 +5659,7 @@
         <v>56</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,7 +5676,7 @@
         <v>57</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,7 +5693,7 @@
         <v>58</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5730,7 +5710,7 @@
         <v>59</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5747,7 +5727,7 @@
         <v>60</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,7 +5744,7 @@
         <v>61</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5781,7 +5761,7 @@
         <v>62</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,7 +5778,7 @@
         <v>63</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,7 +5795,7 @@
         <v>64</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5832,7 +5812,7 @@
         <v>65</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5849,7 +5829,7 @@
         <v>66</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5866,7 +5846,7 @@
         <v>67</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5883,7 +5863,7 @@
         <v>68</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5900,7 +5880,7 @@
         <v>69</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5917,7 +5897,7 @@
         <v>70</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5934,7 +5914,7 @@
         <v>71</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5951,7 +5931,7 @@
         <v>72</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5968,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5985,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -6002,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -6019,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6036,7 +6016,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6053,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6070,7 +6050,7 @@
         <v>7</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6087,7 +6067,7 @@
         <v>8</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6104,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6138,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6155,7 +6135,7 @@
         <v>12</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6172,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6189,7 +6169,7 @@
         <v>14</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6206,7 +6186,7 @@
         <v>15</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6223,7 +6203,7 @@
         <v>16</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6240,7 +6220,7 @@
         <v>17</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6257,7 +6237,7 @@
         <v>18</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6274,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,7 +6271,7 @@
         <v>20</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6308,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6325,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,7 +6322,7 @@
         <v>23</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,7 +6339,7 @@
         <v>24</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6376,7 +6356,7 @@
         <v>25</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6393,7 +6373,7 @@
         <v>26</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6410,7 +6390,7 @@
         <v>27</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6427,7 +6407,7 @@
         <v>28</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6444,7 +6424,7 @@
         <v>29</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,7 +6441,7 @@
         <v>30</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,7 +6458,7 @@
         <v>31</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6495,7 +6475,7 @@
         <v>32</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6512,7 +6492,7 @@
         <v>33</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,7 +6509,7 @@
         <v>34</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6546,7 +6526,7 @@
         <v>35</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6563,7 +6543,7 @@
         <v>36</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6580,7 +6560,7 @@
         <v>37</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6597,7 +6577,7 @@
         <v>38</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6614,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6631,7 +6611,7 @@
         <v>40</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6648,7 +6628,7 @@
         <v>41</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,7 +6645,7 @@
         <v>42</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6682,7 +6662,7 @@
         <v>43</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,7 +6679,7 @@
         <v>44</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6716,7 +6696,7 @@
         <v>45</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6733,7 +6713,7 @@
         <v>46</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6750,7 +6730,7 @@
         <v>47</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6767,7 +6747,7 @@
         <v>48</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6784,7 +6764,7 @@
         <v>49</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,7 +6781,7 @@
         <v>50</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6818,7 +6798,7 @@
         <v>51</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,7 +6815,7 @@
         <v>52</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6852,7 +6832,7 @@
         <v>53</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6869,7 +6849,7 @@
         <v>54</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6886,7 +6866,7 @@
         <v>55</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6903,7 +6883,7 @@
         <v>56</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6920,7 +6900,7 @@
         <v>104</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6937,7 +6917,7 @@
         <v>129</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6954,7 +6934,7 @@
         <v>154</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6971,7 +6951,7 @@
         <v>179</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6988,7 +6968,7 @@
         <v>204</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -7005,7 +6985,7 @@
         <v>229</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -7022,7 +7002,7 @@
         <v>254</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,7 +7019,7 @@
         <v>279</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,7 +7036,7 @@
         <v>304</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -7073,7 +7053,7 @@
         <v>329</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,7 +7070,7 @@
         <v>354</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7107,7 +7087,7 @@
         <v>276</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,7 +7104,7 @@
         <v>373</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7141,7 +7121,7 @@
         <v>275</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7158,7 +7138,7 @@
         <v>274</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7175,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7192,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7209,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,57 +7632,6 @@
       </c>
       <c r="E306" s="10" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="9">
-        <v>2</v>
-      </c>
-      <c r="B307" s="9">
-        <v>7</v>
-      </c>
-      <c r="C307" s="9">
-        <v>26</v>
-      </c>
-      <c r="D307" s="10">
-        <v>28</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="9">
-        <v>2</v>
-      </c>
-      <c r="B308" s="9">
-        <v>7</v>
-      </c>
-      <c r="C308" s="9">
-        <v>26</v>
-      </c>
-      <c r="D308" s="10">
-        <v>29</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="9">
-        <v>2</v>
-      </c>
-      <c r="B309" s="9">
-        <v>7</v>
-      </c>
-      <c r="C309" s="9">
-        <v>26</v>
-      </c>
-      <c r="D309" s="10">
-        <v>30</v>
-      </c>
-      <c r="E309" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7715,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7729,20 +7658,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7759,7 +7688,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7776,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7793,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7810,7 +7739,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7827,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7844,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7861,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7878,7 +7807,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7895,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7912,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7929,7 +7858,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7946,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7963,7 +7892,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7980,7 +7909,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,7 +7926,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8014,7 +7943,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8031,7 +7960,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8048,7 +7977,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8065,7 +7994,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8082,7 +8011,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8099,7 +8028,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8116,7 +8045,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8133,7 +8062,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8150,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8167,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8184,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,7 +8130,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8218,7 +8147,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8235,7 +8164,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8252,7 +8181,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8269,7 +8198,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8286,7 +8215,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,7 +8232,7 @@
         <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8320,7 +8249,7 @@
         <v>24</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8337,7 +8266,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8354,7 +8283,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8371,7 +8300,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8388,7 +8317,7 @@
         <v>48</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,7 +8334,7 @@
         <v>50</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8422,7 +8351,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,7 +8368,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8456,7 +8385,7 @@
         <v>68</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8473,7 +8402,7 @@
         <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8490,7 +8419,7 @@
         <v>84</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8507,7 +8436,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8524,7 +8453,7 @@
         <v>88</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8541,7 +8470,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8558,7 +8487,7 @@
         <v>102</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8575,7 +8504,7 @@
         <v>104</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8592,7 +8521,7 @@
         <v>106</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8609,7 +8538,7 @@
         <v>120</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8626,7 +8555,7 @@
         <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8643,7 +8572,7 @@
         <v>124</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8660,7 +8589,7 @@
         <v>138</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8677,7 +8606,7 @@
         <v>140</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8694,7 +8623,7 @@
         <v>142</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8711,7 +8640,7 @@
         <v>156</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8728,7 +8657,7 @@
         <v>158</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8745,7 +8674,7 @@
         <v>160</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8762,7 +8691,7 @@
         <v>174</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8779,7 +8708,7 @@
         <v>176</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +8725,7 @@
         <v>178</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8813,7 +8742,7 @@
         <v>192</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8830,7 +8759,7 @@
         <v>194</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8847,7 +8776,7 @@
         <v>196</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8864,7 +8793,7 @@
         <v>210</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,7 +8810,7 @@
         <v>216</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8898,7 +8827,7 @@
         <v>218</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,7 +8844,7 @@
         <v>220</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8932,7 +8861,7 @@
         <v>222</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8949,7 +8878,7 @@
         <v>224</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8966,7 +8895,7 @@
         <v>230</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8983,7 +8912,7 @@
         <v>238</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,7 +8929,7 @@
         <v>260</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -9017,7 +8946,7 @@
         <v>266</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -9034,7 +8963,7 @@
         <v>268</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -9051,7 +8980,7 @@
         <v>270</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -9068,7 +8997,7 @@
         <v>272</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,7 +9014,7 @@
         <v>274</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -9102,7 +9031,7 @@
         <v>280</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9119,7 +9048,7 @@
         <v>288</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9136,7 +9065,7 @@
         <v>310</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,7 +9082,7 @@
         <v>316</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9170,7 +9099,7 @@
         <v>318</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9187,7 +9116,7 @@
         <v>320</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9204,7 +9133,7 @@
         <v>322</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9221,7 +9150,7 @@
         <v>324</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9238,7 +9167,7 @@
         <v>330</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9255,7 +9184,7 @@
         <v>338</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9272,7 +9201,7 @@
         <v>360</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9289,7 +9218,7 @@
         <v>366</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9306,7 +9235,7 @@
         <v>368</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9323,7 +9252,7 @@
         <v>370</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9340,7 +9269,7 @@
         <v>372</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9357,7 +9286,7 @@
         <v>374</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,7 +9303,7 @@
         <v>380</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9391,7 +9320,7 @@
         <v>388</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9408,7 +9337,7 @@
         <v>410</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9425,7 +9354,7 @@
         <v>416</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9442,7 +9371,7 @@
         <v>418</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9459,7 +9388,7 @@
         <v>420</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9476,7 +9405,7 @@
         <v>422</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9493,7 +9422,7 @@
         <v>424</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9510,7 +9439,7 @@
         <v>430</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9527,7 +9456,7 @@
         <v>438</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9544,7 +9473,7 @@
         <v>460</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9561,7 +9490,7 @@
         <v>466</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9578,7 +9507,7 @@
         <v>468</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9595,7 +9524,7 @@
         <v>470</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9612,7 +9541,7 @@
         <v>472</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9629,7 +9558,7 @@
         <v>474</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9646,7 +9575,7 @@
         <v>480</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9663,7 +9592,7 @@
         <v>488</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9680,7 +9609,7 @@
         <v>510</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,7 +9626,7 @@
         <v>516</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,7 +9643,7 @@
         <v>518</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9731,7 +9660,7 @@
         <v>520</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9748,7 +9677,7 @@
         <v>522</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9765,7 +9694,7 @@
         <v>524</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9782,7 +9711,7 @@
         <v>530</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9799,7 +9728,7 @@
         <v>538</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9816,7 +9745,7 @@
         <v>548</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9833,7 +9762,7 @@
         <v>550</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9850,7 +9779,7 @@
         <v>552</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9867,7 +9796,7 @@
         <v>560</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9884,7 +9813,7 @@
         <v>566</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9901,7 +9830,7 @@
         <v>568</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9918,7 +9847,7 @@
         <v>570</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9935,7 +9864,7 @@
         <v>572</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9952,7 +9881,7 @@
         <v>574</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9969,7 +9898,7 @@
         <v>580</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9986,7 +9915,7 @@
         <v>588</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -10003,7 +9932,7 @@
         <v>610</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -10020,7 +9949,7 @@
         <v>616</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -10037,7 +9966,7 @@
         <v>618</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10054,7 +9983,7 @@
         <v>620</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -10071,7 +10000,7 @@
         <v>622</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -10088,7 +10017,7 @@
         <v>624</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -10105,7 +10034,7 @@
         <v>630</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -10122,7 +10051,7 @@
         <v>638</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10139,7 +10068,7 @@
         <v>660</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10156,7 +10085,7 @@
         <v>666</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10173,7 +10102,7 @@
         <v>668</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10190,7 +10119,7 @@
         <v>670</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10207,7 +10136,7 @@
         <v>672</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10224,7 +10153,7 @@
         <v>674</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10241,7 +10170,7 @@
         <v>680</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10258,7 +10187,7 @@
         <v>688</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10275,7 +10204,7 @@
         <v>708</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10292,7 +10221,7 @@
         <v>746</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10309,7 +10238,7 @@
         <v>750</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10326,7 +10255,7 @@
         <v>764</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10343,7 +10272,7 @@
         <v>810</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10360,7 +10289,7 @@
         <v>812</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10377,7 +10306,7 @@
         <v>814</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10394,7 +10323,7 @@
         <v>820</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10411,7 +10340,7 @@
         <v>822</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10428,7 +10357,7 @@
         <v>824</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10445,7 +10374,7 @@
         <v>830</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10462,7 +10391,7 @@
         <v>832</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10479,7 +10408,7 @@
         <v>834</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10496,7 +10425,7 @@
         <v>840</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10513,7 +10442,7 @@
         <v>842</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10530,7 +10459,7 @@
         <v>844</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10547,7 +10476,7 @@
         <v>850</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10564,7 +10493,7 @@
         <v>852</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10581,7 +10510,7 @@
         <v>854</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10598,7 +10527,7 @@
         <v>860</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10615,7 +10544,7 @@
         <v>862</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10632,7 +10561,7 @@
         <v>864</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10649,7 +10578,7 @@
         <v>870</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10666,7 +10595,7 @@
         <v>872</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10683,7 +10612,7 @@
         <v>874</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10700,7 +10629,7 @@
         <v>880</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10717,7 +10646,7 @@
         <v>882</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10734,7 +10663,7 @@
         <v>884</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10751,7 +10680,7 @@
         <v>890</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10768,7 +10697,7 @@
         <v>892</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10785,7 +10714,7 @@
         <v>894</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10802,7 +10731,7 @@
         <v>900</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10819,7 +10748,7 @@
         <v>902</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10836,7 +10765,7 @@
         <v>904</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10853,7 +10782,7 @@
         <v>910</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10870,7 +10799,7 @@
         <v>912</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10887,7 +10816,7 @@
         <v>914</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10904,7 +10833,7 @@
         <v>930</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10921,7 +10850,7 @@
         <v>932</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10938,7 +10867,7 @@
         <v>934</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10955,7 +10884,7 @@
         <v>936</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10972,7 +10901,7 @@
         <v>938</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10989,7 +10918,7 @@
         <v>940</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -11006,7 +10935,7 @@
         <v>942</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -11023,7 +10952,7 @@
         <v>944</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -11040,7 +10969,7 @@
         <v>946</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -11057,7 +10986,7 @@
         <v>948</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -11074,7 +11003,7 @@
         <v>950</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -11091,7 +11020,7 @@
         <v>952</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -11108,7 +11037,7 @@
         <v>954</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -11125,7 +11054,7 @@
         <v>956</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -11142,7 +11071,7 @@
         <v>958</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -11159,7 +11088,7 @@
         <v>970</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -11176,7 +11105,7 @@
         <v>972</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -11193,7 +11122,7 @@
         <v>974</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -11210,7 +11139,7 @@
         <v>980</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -11227,7 +11156,7 @@
         <v>982</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -11244,7 +11173,7 @@
         <v>984</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -11261,7 +11190,7 @@
         <v>990</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -11278,7 +11207,7 @@
         <v>992</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -11295,7 +11224,7 @@
         <v>994</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -11312,7 +11241,7 @@
         <v>1000</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -11329,7 +11258,7 @@
         <v>1002</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11346,7 +11275,7 @@
         <v>1004</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
